--- a/doc/PROPER APL.xlsx
+++ b/doc/PROPER APL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LaNa\Documents\_PROJEK\Bang Tiar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LaNa\Documents\_PROJEK\bang_tiar\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8471158-3464-461F-A540-D9679799D6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD75CFC2-3F6D-492C-8EAF-7A18269298AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{778432AE-6B5A-451D-97FE-BF146CC4936C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{778432AE-6B5A-451D-97FE-BF146CC4936C}"/>
   </bookViews>
   <sheets>
     <sheet name="KOMPRESOR" sheetId="1" r:id="rId1"/>
@@ -471,9 +471,6 @@
     <t>Dengan tabung penyeimbang oli: Kompresor tidak berada pada bidang horizontal yang sama. Pipa penyama kedudukan terlalu kecil</t>
   </si>
   <si>
-    <t>dengan pengaturan level oli: Katup apung sebagian atau tersumbat seluruhnya. Katup apung menempel.</t>
-  </si>
-  <si>
     <t>Oli yang kembali dari pemisah oli tersumbat sebagian atau seluruhnya, atau katup pelampung macet.</t>
   </si>
   <si>
@@ -1147,6 +1144,9 @@
   </si>
   <si>
     <t>Melakukan penggantian TXV .</t>
+  </si>
+  <si>
+    <t>Dengan pengaturan level oli: Katup apung sebagian atau tersumbat seluruhnya. Katup apung menempel.</t>
   </si>
 </sst>
 </file>
@@ -1348,52 +1348,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,7 +1378,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,10 +1405,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D4A6D1-A29F-46F4-AE99-9E07000EF075}">
   <dimension ref="D6:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,8 +1760,8 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="7" width="212.140625" customWidth="1"/>
-    <col min="8" max="8" width="65" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1806,7 +1806,7 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1865,70 +1865,70 @@
       <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="E16" s="45"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17" s="45"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="45"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="45"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1937,24 +1937,24 @@
       <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -1979,7 +1979,7 @@
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
-      <c r="E25" s="32"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
-      <c r="E27" s="32"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2019,217 +2019,217 @@
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
-      <c r="E29" s="32"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
-      <c r="E30" s="32"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="37"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
-      <c r="E35" s="32"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="12" t="s">
         <v>66</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="38"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
-      <c r="E37" s="32"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="12" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="38"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="30"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
-      <c r="E39" s="32"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="40"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
-      <c r="E42" s="32"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="42"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="E44" s="32"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="42"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
-      <c r="E45" s="32"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="43"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
-      <c r="E46" s="32"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
@@ -2240,64 +2240,64 @@
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
-      <c r="E47" s="32"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="14" t="s">
         <v>94</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
-      <c r="E48" s="32"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="44"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
-      <c r="E49" s="32"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="44"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
-      <c r="E50" s="32"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
-      <c r="E51" s="33"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="44"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
-      <c r="E53" s="33"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="7" t="s">
         <v>105</v>
       </c>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="26" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -2340,35 +2340,35 @@
       <c r="G55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
-      <c r="E56" s="32"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="25"/>
+      <c r="H56" s="41"/>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
-      <c r="E57" s="33"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H57" s="26"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="26" t="s">
         <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2380,7 +2380,7 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
-      <c r="E59" s="33"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2402,7 +2402,7 @@
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="1" t="s">
         <v>125</v>
       </c>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="20" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2424,7 +2424,7 @@
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
-      <c r="E63" s="23"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="1" t="s">
         <v>130</v>
       </c>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
-      <c r="E64" s="23"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
-      <c r="E65" s="23"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="1" t="s">
         <v>132</v>
       </c>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
-      <c r="E66" s="23"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="1" t="s">
         <v>133</v>
       </c>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="20" t="s">
         <v>137</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2476,7 +2476,7 @@
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
-      <c r="E68" s="23"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="15" t="s">
         <v>139</v>
       </c>
@@ -2486,543 +2486,525 @@
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="26" t="s">
         <v>142</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="40" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
-      <c r="E70" s="32"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="4" t="s">
-        <v>145</v>
+        <v>370</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="H70" s="41"/>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
-      <c r="E71" s="32"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H71" s="26"/>
+        <v>154</v>
+      </c>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
-      <c r="E72" s="32"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="H72" s="45" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
-      <c r="E73" s="32"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H73" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="H73" s="46"/>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
-      <c r="E74" s="32"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
-      <c r="E75" s="32"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>151</v>
+        <v>160</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
-      <c r="E76" s="33"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H76" s="30"/>
+        <v>161</v>
+      </c>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
-      <c r="E78" s="23"/>
+      <c r="E78" s="20"/>
       <c r="F78" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
-      <c r="E79" s="23"/>
+      <c r="E79" s="20"/>
       <c r="F79" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
-      <c r="E81" s="23"/>
+      <c r="E81" s="20"/>
       <c r="F81" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="G82" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="G83" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H83" s="34" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
-      <c r="E84" s="23"/>
+      <c r="E84" s="20"/>
       <c r="F84" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H84" s="34"/>
+        <v>187</v>
+      </c>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
-      <c r="E85" s="23"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H85" s="34"/>
+        <v>188</v>
+      </c>
+      <c r="H85" s="22"/>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
-      <c r="E86" s="23"/>
+      <c r="E86" s="20"/>
       <c r="F86" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H86" s="34"/>
+        <v>189</v>
+      </c>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
-      <c r="E87" s="23"/>
+      <c r="E87" s="20"/>
       <c r="F87" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H87" s="34"/>
+        <v>190</v>
+      </c>
+      <c r="H87" s="22"/>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
-      <c r="E88" s="23"/>
+      <c r="E88" s="20"/>
       <c r="F88" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="34"/>
+        <v>191</v>
+      </c>
+      <c r="H88" s="22"/>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
-      <c r="E89" s="23"/>
+      <c r="E89" s="20"/>
       <c r="F89" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H89" s="20" t="s">
-        <v>169</v>
+        <v>192</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
-      <c r="E90" s="23"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H90" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="H90" s="23"/>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
-      <c r="E91" s="23"/>
+      <c r="E91" s="20"/>
       <c r="F91" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H91" s="20"/>
+      <c r="H91" s="23"/>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
-      <c r="E93" s="23"/>
+      <c r="E93" s="20"/>
       <c r="F93" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>204</v>
+        <v>222</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
-      <c r="E94" s="23"/>
+      <c r="E94" s="20"/>
       <c r="F94" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H94" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
-      <c r="E95" s="23"/>
+      <c r="E95" s="20"/>
       <c r="F95" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H95" s="20"/>
+        <v>223</v>
+      </c>
+      <c r="H95" s="23"/>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
-      <c r="E96" s="23"/>
+      <c r="E96" s="20"/>
       <c r="F96" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H96" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
-      <c r="E97" s="23"/>
+      <c r="E97" s="20"/>
       <c r="F97" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H97" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
-      <c r="E98" s="23"/>
+      <c r="E98" s="20"/>
       <c r="F98" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>205</v>
+        <v>226</v>
+      </c>
+      <c r="H98" s="43" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
-      <c r="E99" s="23"/>
+      <c r="E99" s="20"/>
       <c r="F99" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H99" s="22"/>
+        <v>227</v>
+      </c>
+      <c r="H99" s="44"/>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
-      <c r="E100" s="23"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H100" s="22"/>
+        <v>228</v>
+      </c>
+      <c r="H100" s="44"/>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
-      <c r="E101" s="23"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H101" s="22"/>
+        <v>229</v>
+      </c>
+      <c r="H101" s="44"/>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
-      <c r="E102" s="23"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H102" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
-      <c r="E103" s="23"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H103" s="22"/>
+        <v>231</v>
+      </c>
+      <c r="H103" s="44"/>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
-      <c r="E104" s="23"/>
+      <c r="E104" s="20"/>
       <c r="F104" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H104" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="H104" s="44"/>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
-      <c r="E105" s="23"/>
+      <c r="E105" s="20"/>
       <c r="F105" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H105" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="H105" s="44"/>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
-      <c r="E106" s="23"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H106" s="22"/>
+        <v>234</v>
+      </c>
+      <c r="H106" s="44"/>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
-      <c r="E107" s="23"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H107" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="H107" s="44"/>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
-      <c r="E108" s="23"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H108" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="H108" s="44"/>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
-      <c r="E109" s="23"/>
+      <c r="E109" s="20"/>
       <c r="F109" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H109" s="22"/>
+        <v>237</v>
+      </c>
+      <c r="H109" s="44"/>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
-      <c r="E110" s="23"/>
+      <c r="E110" s="20"/>
       <c r="F110" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H110" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="H110" s="44"/>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
-      <c r="E111" s="23"/>
+      <c r="E111" s="20"/>
       <c r="F111" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H111" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
-      <c r="E112" s="23"/>
+      <c r="E112" s="20"/>
       <c r="F112" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H112" s="22"/>
+        <v>240</v>
+      </c>
+      <c r="H112" s="44"/>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
-      <c r="E113" s="23"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H113" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="H113" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="E23:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="H55:H57"/>
     <mergeCell ref="H93:H97"/>
     <mergeCell ref="H98:H113"/>
     <mergeCell ref="E92:E113"/>
@@ -3038,6 +3020,24 @@
     <mergeCell ref="H89:H91"/>
     <mergeCell ref="H83:H88"/>
     <mergeCell ref="E83:E91"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="E23:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E20:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3048,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC622771-126A-461F-B915-15C2B1A590C1}">
   <dimension ref="C6:G46"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C46"/>
+    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,459 +3063,459 @@
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>258</v>
+        <v>266</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G12" s="34"/>
+        <v>267</v>
+      </c>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="34"/>
+        <v>268</v>
+      </c>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>269</v>
+      </c>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="23"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" s="34"/>
+        <v>270</v>
+      </c>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="34"/>
+        <v>271</v>
+      </c>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="34"/>
+        <v>272</v>
+      </c>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="34"/>
+        <v>273</v>
+      </c>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>275</v>
+        <v>284</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" s="20"/>
+        <v>285</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="20"/>
+        <v>287</v>
+      </c>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G24" s="20"/>
+        <v>289</v>
+      </c>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="23"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G25" s="20"/>
+        <v>290</v>
+      </c>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G26" s="20"/>
+        <v>291</v>
+      </c>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G27" s="20"/>
+        <v>292</v>
+      </c>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-      <c r="D28" s="23" t="s">
-        <v>249</v>
+      <c r="D28" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
-      <c r="D33" s="23"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G35" s="47"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>275</v>
+        <v>314</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>315</v>
+      </c>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G38" s="20"/>
+        <v>316</v>
+      </c>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>317</v>
+      </c>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G40" s="20"/>
+        <v>318</v>
+      </c>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
-      <c r="D42" s="23"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
-      <c r="D43" s="23"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
-      <c r="D44" s="23"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
-      <c r="D46" s="23"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3536,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE08F4F-C7A7-4AA7-8EB6-1072BADA562B}">
   <dimension ref="C7:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,51 +3549,51 @@
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="39"/>
+      <c r="D9" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
+      <c r="D10" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="32"/>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="27"/>
+      <c r="D11" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="33"/>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3608,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236CDB7A-BB7E-4C77-BDE0-3E27E943C4E7}">
   <dimension ref="C4:G15"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D15"/>
+    <sheetView topLeftCell="G4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,147 +3623,147 @@
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="19" t="s">
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F6" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="5" t="s">
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="10" t="s">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="10" t="s">
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="G15" s="48"/>
     </row>
@@ -3775,5 +3775,6 @@
     <mergeCell ref="C5:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/PROPER APL.xlsx
+++ b/doc/PROPER APL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LaNa\Documents\_PROJEK\bang_tiar\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD75CFC2-3F6D-492C-8EAF-7A18269298AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3B5160-6E13-4D8A-83AD-9AC1D1F0F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{778432AE-6B5A-451D-97FE-BF146CC4936C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{778432AE-6B5A-451D-97FE-BF146CC4936C}"/>
   </bookViews>
   <sheets>
     <sheet name="KOMPRESOR" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ALAT EKSPANSI" sheetId="3" r:id="rId3"/>
     <sheet name="EVAPORATOR" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -471,6 +476,9 @@
     <t>Dengan tabung penyeimbang oli: Kompresor tidak berada pada bidang horizontal yang sama. Pipa penyama kedudukan terlalu kecil</t>
   </si>
   <si>
+    <t>dengan pengaturan level oli: Katup apung sebagian atau tersumbat seluruhnya. Katup apung menempel.</t>
+  </si>
+  <si>
     <t>Oli yang kembali dari pemisah oli tersumbat sebagian atau seluruhnya, atau katup pelampung macet.</t>
   </si>
   <si>
@@ -1144,9 +1152,6 @@
   </si>
   <si>
     <t>Melakukan penggantian TXV .</t>
-  </si>
-  <si>
-    <t>Dengan pengaturan level oli: Katup apung sebagian atau tersumbat seluruhnya. Katup apung menempel.</t>
   </si>
 </sst>
 </file>
@@ -1346,8 +1351,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1429,12 +1432,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,20 +1756,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D4A6D1-A29F-46F4-AE99-9E07000EF075}">
   <dimension ref="D6:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="C92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" customWidth="1"/>
+    <col min="7" max="7" width="212.109375" customWidth="1"/>
+    <col min="8" max="8" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1772,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1792,9 +1797,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1804,9 +1809,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1814,9 +1819,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1824,9 +1829,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1834,9 +1839,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1844,9 +1849,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1854,9 +1859,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1865,70 +1870,70 @@
       <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1937,24 +1942,24 @@
       <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1965,9 +1970,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -1977,9 +1982,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1987,9 +1992,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1997,9 +2002,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,9 +2012,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
-      <c r="E27" s="39"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2017,219 +2022,219 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
-      <c r="E28" s="39"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
-      <c r="E29" s="39"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
-      <c r="E30" s="39"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
-      <c r="E31" s="39"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
-      <c r="E34" s="39"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
-      <c r="E35" s="39"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="12" t="s">
         <v>66</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
-      <c r="E36" s="39"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
-      <c r="E37" s="39"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="12" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
-      <c r="E38" s="39"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
-      <c r="E39" s="39"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
-      <c r="E40" s="39"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="34"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
-      <c r="E41" s="39"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
-      <c r="E42" s="39"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
-      <c r="E43" s="39"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="36"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
-      <c r="E44" s="39"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
-      <c r="E45" s="39"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="37"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
-      <c r="E46" s="39"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
@@ -2238,66 +2243,66 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
-      <c r="E47" s="39"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="14" t="s">
         <v>94</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="H47" s="36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
-      <c r="E48" s="39"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="38"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
-      <c r="E49" s="39"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
-      <c r="E50" s="39"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="38"/>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="38"/>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2307,9 +2312,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="7" t="s">
         <v>105</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="E54" s="3" t="s">
         <v>108</v>
@@ -2329,9 +2334,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="24" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -2340,35 +2345,35 @@
       <c r="G55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
-      <c r="E56" s="39"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="41"/>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="39"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="24" t="s">
         <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2378,9 +2383,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="25"/>
       <c r="F59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2388,9 +2393,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2400,9 +2405,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
-      <c r="E61" s="20"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="1" t="s">
         <v>125</v>
       </c>
@@ -2410,9 +2415,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="18" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2422,9 +2427,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
-      <c r="E63" s="20"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="1" t="s">
         <v>130</v>
       </c>
@@ -2432,9 +2437,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2442,9 +2447,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="1" t="s">
         <v>132</v>
       </c>
@@ -2452,9 +2457,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="1" t="s">
         <v>133</v>
       </c>
@@ -2462,9 +2467,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="18" t="s">
         <v>137</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2474,9 +2479,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="15" t="s">
         <v>139</v>
       </c>
@@ -2484,524 +2489,524 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D70" s="1"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H70" s="39"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D71" s="1"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="40"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D72" s="1"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D73" s="1"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" s="44"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D74" s="1"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="41"/>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H71" s="42"/>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="1"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H72" s="45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H73" s="46"/>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="1"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="10" t="s">
+      <c r="G74" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D75" s="1"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="12" t="s">
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D76" s="1"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H75" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="1"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="G76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H76" s="32"/>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="H76" s="30"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
-      <c r="E77" s="20" t="s">
-        <v>162</v>
+      <c r="E77" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D78" s="1"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="1"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
-      <c r="E80" s="20" t="s">
-        <v>168</v>
+      <c r="E80" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D81" s="1"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="1"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
       <c r="E82" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
-      <c r="E83" s="20" t="s">
-        <v>176</v>
+      <c r="E83" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G83" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D85" s="1"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D87" s="1"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D88" s="1"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D89" s="1"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D90" s="1"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H83" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D84" s="1"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H84" s="22"/>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D85" s="1"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H85" s="22"/>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D86" s="1"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H86" s="22"/>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D87" s="1"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H87" s="22"/>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D88" s="1"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D89" s="1"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D90" s="1"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="G90" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H90" s="23"/>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
-      <c r="E91" s="20"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H91" s="23"/>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H91" s="21"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
-      <c r="E92" s="20" t="s">
-        <v>196</v>
+      <c r="E92" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
-      <c r="E93" s="20"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
-      <c r="E94" s="20"/>
+      <c r="E94" s="18"/>
       <c r="F94" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H94" s="23"/>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
-      <c r="E95" s="20"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H95" s="23"/>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="H95" s="21"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
-      <c r="E96" s="20"/>
+      <c r="E96" s="18"/>
       <c r="F96" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="23"/>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
-      <c r="E97" s="20"/>
+      <c r="E97" s="18"/>
       <c r="F97" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H97" s="23"/>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
-      <c r="E98" s="20"/>
+      <c r="E98" s="18"/>
       <c r="F98" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G98" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H98" s="43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
-      <c r="E99" s="20"/>
+      <c r="E99" s="18"/>
       <c r="F99" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H99" s="44"/>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="H99" s="42"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
-      <c r="E100" s="20"/>
+      <c r="E100" s="18"/>
       <c r="F100" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H100" s="44"/>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="H100" s="42"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
-      <c r="E101" s="20"/>
+      <c r="E101" s="18"/>
       <c r="F101" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H101" s="44"/>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="H101" s="42"/>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D102" s="1"/>
-      <c r="E102" s="20"/>
+      <c r="E102" s="18"/>
       <c r="F102" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H102" s="44"/>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H102" s="42"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D103" s="1"/>
-      <c r="E103" s="20"/>
+      <c r="E103" s="18"/>
       <c r="F103" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H103" s="44"/>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="H103" s="42"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D104" s="1"/>
-      <c r="E104" s="20"/>
+      <c r="E104" s="18"/>
       <c r="F104" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H104" s="44"/>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="H104" s="42"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D105" s="1"/>
-      <c r="E105" s="20"/>
+      <c r="E105" s="18"/>
       <c r="F105" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H105" s="44"/>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H105" s="42"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D106" s="1"/>
-      <c r="E106" s="20"/>
+      <c r="E106" s="18"/>
       <c r="F106" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H106" s="44"/>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H106" s="42"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
-      <c r="E107" s="20"/>
+      <c r="E107" s="18"/>
       <c r="F107" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H107" s="44"/>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="H107" s="42"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
-      <c r="E108" s="20"/>
+      <c r="E108" s="18"/>
       <c r="F108" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H108" s="44"/>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="H108" s="42"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
-      <c r="E109" s="20"/>
+      <c r="E109" s="18"/>
       <c r="F109" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H109" s="44"/>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H109" s="42"/>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
-      <c r="E110" s="20"/>
+      <c r="E110" s="18"/>
       <c r="F110" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H110" s="44"/>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H110" s="42"/>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
-      <c r="E111" s="20"/>
+      <c r="E111" s="18"/>
       <c r="F111" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H111" s="44"/>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H111" s="42"/>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
-      <c r="E112" s="20"/>
+      <c r="E112" s="18"/>
       <c r="F112" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H112" s="44"/>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="H112" s="42"/>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
-      <c r="E113" s="20"/>
+      <c r="E113" s="18"/>
       <c r="F113" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H113" s="44"/>
+        <v>242</v>
+      </c>
+      <c r="H113" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3040,7 +3045,6 @@
     <mergeCell ref="E20:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3048,474 +3052,474 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC622771-126A-461F-B915-15C2B1A590C1}">
   <dimension ref="C6:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="73.140625" customWidth="1"/>
-    <col min="6" max="6" width="140.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="73.109375" customWidth="1"/>
+    <col min="6" max="6" width="140.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="4" t="s">
+      <c r="E28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="5" t="s">
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="46"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" s="5" t="s">
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
-      <c r="D41" s="20" t="s">
-        <v>319</v>
+      <c r="D41" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3536,64 +3540,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE08F4F-C7A7-4AA7-8EB6-1072BADA562B}">
   <dimension ref="C7:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="106.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="106.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
-        <v>360</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="39"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
       <c r="D9" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="39"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
       <c r="D10" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="27"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="25"/>
       <c r="D11" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3608,164 +3612,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236CDB7A-BB7E-4C77-BDE0-3E27E943C4E7}">
   <dimension ref="C4:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G15"/>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="5" max="5" width="98" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" customWidth="1"/>
+    <col min="7" max="7" width="52.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="26" t="s">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="F5" s="19" t="s">
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="F8" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="F9" s="10" t="s">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" s="48"/>
+        <v>360</v>
+      </c>
+      <c r="G15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3775,6 +3779,5 @@
     <mergeCell ref="C5:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>